--- a/Excel/204/EXA02.xlsx
+++ b/Excel/204/EXA02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saidabose/Documents/GitHub/Logbook/Excel/204/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC775B0B-BFCC-7843-9160-B982257825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D57527-5469-AD46-B727-75E703FBB48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C0EA0138-4935-40FD-B81F-9205AB1BBCBE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{C0EA0138-4935-40FD-B81F-9205AB1BBCBE}"/>
   </bookViews>
   <sheets>
     <sheet name="圖書資料" sheetId="1" r:id="rId1"/>
@@ -6062,29 +6062,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -6369,6 +6347,18 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6383,20 +6373,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CB62501-EB69-429A-A728-10267D1B73F1}" name="圖書年份" displayName="圖書年份" ref="A1:I557" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CB62501-EB69-429A-A728-10267D1B73F1}" name="圖書年份" displayName="圖書年份" ref="A1:I557" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I557" xr:uid="{86684F5A-5E6F-48FE-8A9D-7C8AD07230E8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1279DFC1-7C00-4880-A6A2-225C98D879CB}" name="介購號" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CAEF4C87-B0F5-4B11-BFD0-925AB7891984}" name="題名" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{105685A1-BD51-4496-9E8F-6D029024153C}" name="作者" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A8007344-9FF4-4343-9D1B-51285B791465}" name="書目編號" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5C285ECC-0BD5-40EF-B29E-CC1281A35F53}" name="出版社" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A9742071-17DD-4DF4-A7B0-ABE932B85C5C}" name="年份" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{BC8ECEB4-04E2-46CD-BE8C-6B951817789C}" name="類型" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D288B669-277E-4B88-B980-01D046974754}" name="學院" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F87923CF-4561-4E74-BBCD-CEB883BF9C35}" name="系所" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1279DFC1-7C00-4880-A6A2-225C98D879CB}" name="介購號" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CAEF4C87-B0F5-4B11-BFD0-925AB7891984}" name="題名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{105685A1-BD51-4496-9E8F-6D029024153C}" name="作者" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A8007344-9FF4-4343-9D1B-51285B791465}" name="書目編號" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5C285ECC-0BD5-40EF-B29E-CC1281A35F53}" name="出版社" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A9742071-17DD-4DF4-A7B0-ABE932B85C5C}" name="年份" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BC8ECEB4-04E2-46CD-BE8C-6B951817789C}" name="類型" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D288B669-277E-4B88-B980-01D046974754}" name="學院" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{F87923CF-4561-4E74-BBCD-CEB883BF9C35}" name="系所" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6699,9 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E97EB39-6EC8-4211-B824-1A3526D3D4FE}">
   <dimension ref="A1:H558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="88" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
-    </sheetView>
+    <sheetView zoomScale="88" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18"/>
   <cols>
@@ -7859,7 +7847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19">
+    <row r="45" spans="1:8" ht="38">
       <c r="A45" s="6" t="s">
         <v>150</v>
       </c>
@@ -8093,7 +8081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="57">
+    <row r="54" spans="1:8" ht="76">
       <c r="A54" s="6" t="s">
         <v>150</v>
       </c>
@@ -14125,7 +14113,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="19">
+    <row r="286" spans="1:8" ht="38">
       <c r="A286" s="6" t="s">
         <v>801</v>
       </c>
@@ -21226,7 +21214,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A35:H558">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>AND($F2&gt;=2010,RIGHT($A2,4)="6668",OR(LEFT($D2,2)="23",LEFT($D2,2)="24"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21238,8 +21226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332F77CB-1E3B-4362-BBC5-365542DACEA4}">
   <dimension ref="A1:I557"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18"/>
